--- a/SchedulingData/dynamic16/pso/scheduling2_4.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>211.26</v>
+        <v>249.68</v>
       </c>
       <c r="D2" t="n">
-        <v>252.54</v>
+        <v>298</v>
       </c>
       <c r="E2" t="n">
-        <v>14.436</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>211.58</v>
+        <v>271.42</v>
       </c>
       <c r="D3" t="n">
-        <v>262.54</v>
+        <v>334.52</v>
       </c>
       <c r="E3" t="n">
-        <v>15.736</v>
+        <v>9.188000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -504,207 +504,207 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>246.72</v>
+        <v>219.84</v>
       </c>
       <c r="D4" t="n">
-        <v>302.92</v>
+        <v>285.86</v>
       </c>
       <c r="E4" t="n">
-        <v>11.888</v>
+        <v>9.603999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>227.02</v>
+        <v>222.28</v>
       </c>
       <c r="D5" t="n">
-        <v>274.84</v>
+        <v>301.54</v>
       </c>
       <c r="E5" t="n">
-        <v>12.696</v>
+        <v>9.676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>274.84</v>
+        <v>207.42</v>
       </c>
       <c r="D6" t="n">
-        <v>356.74</v>
+        <v>250.22</v>
       </c>
       <c r="E6" t="n">
-        <v>9.616</v>
+        <v>12.168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>262.54</v>
+        <v>334.52</v>
       </c>
       <c r="D7" t="n">
-        <v>317.72</v>
+        <v>404.62</v>
       </c>
       <c r="E7" t="n">
-        <v>11.848</v>
+        <v>5.288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>252.54</v>
+        <v>269.72</v>
       </c>
       <c r="D8" t="n">
-        <v>317.84</v>
+        <v>327.12</v>
       </c>
       <c r="E8" t="n">
-        <v>10.016</v>
+        <v>11.888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>204</v>
+        <v>250.22</v>
       </c>
       <c r="D9" t="n">
-        <v>254.08</v>
+        <v>316.12</v>
       </c>
       <c r="E9" t="n">
-        <v>13.652</v>
+        <v>7.688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>302.92</v>
+        <v>316.12</v>
       </c>
       <c r="D10" t="n">
-        <v>359.78</v>
+        <v>370.52</v>
       </c>
       <c r="E10" t="n">
-        <v>7.832</v>
+        <v>4.388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>317.72</v>
+        <v>404.62</v>
       </c>
       <c r="D11" t="n">
-        <v>380.12</v>
+        <v>444.62</v>
       </c>
       <c r="E11" t="n">
-        <v>8.208</v>
+        <v>1.928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>380.12</v>
+        <v>444.62</v>
       </c>
       <c r="D12" t="n">
-        <v>430.88</v>
+        <v>537.26</v>
       </c>
       <c r="E12" t="n">
-        <v>4.752</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>237.12</v>
+        <v>285.86</v>
       </c>
       <c r="D13" t="n">
-        <v>316.58</v>
+        <v>330.16</v>
       </c>
       <c r="E13" t="n">
-        <v>10.032</v>
+        <v>6.304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>254.08</v>
+        <v>537.26</v>
       </c>
       <c r="D14" t="n">
-        <v>315.08</v>
+        <v>601.5</v>
       </c>
       <c r="E14" t="n">
-        <v>9.172000000000001</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="15">
@@ -713,112 +713,112 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>315.08</v>
+        <v>301.54</v>
       </c>
       <c r="D15" t="n">
-        <v>362.62</v>
+        <v>363.3</v>
       </c>
       <c r="E15" t="n">
-        <v>6.048</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>430.88</v>
+        <v>601.5</v>
       </c>
       <c r="D16" t="n">
-        <v>514.88</v>
+        <v>663.8</v>
       </c>
       <c r="E16" t="n">
-        <v>1.452</v>
+        <v>23.616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>514.88</v>
+        <v>370.52</v>
       </c>
       <c r="D17" t="n">
-        <v>618.38</v>
+        <v>434.28</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>618.38</v>
+        <v>434.28</v>
       </c>
       <c r="D18" t="n">
-        <v>657.48</v>
+        <v>507.82</v>
       </c>
       <c r="E18" t="n">
-        <v>27.28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>317.84</v>
+        <v>363.3</v>
       </c>
       <c r="D19" t="n">
-        <v>363.68</v>
+        <v>406.82</v>
       </c>
       <c r="E19" t="n">
-        <v>7.052</v>
+        <v>2.408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>363.68</v>
+        <v>330.16</v>
       </c>
       <c r="D20" t="n">
-        <v>433.28</v>
+        <v>402.46</v>
       </c>
       <c r="E20" t="n">
-        <v>3.672</v>
+        <v>2.704</v>
       </c>
     </row>
     <row r="21">
@@ -827,150 +827,150 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>433.28</v>
+        <v>507.82</v>
       </c>
       <c r="D21" t="n">
-        <v>492.94</v>
+        <v>574.72</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>492.94</v>
+        <v>327.12</v>
       </c>
       <c r="D22" t="n">
-        <v>559.74</v>
+        <v>393.28</v>
       </c>
       <c r="E22" t="n">
-        <v>25.98</v>
+        <v>8.852</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>316.58</v>
+        <v>298</v>
       </c>
       <c r="D23" t="n">
-        <v>390.58</v>
+        <v>348.76</v>
       </c>
       <c r="E23" t="n">
-        <v>5.232</v>
+        <v>8.884</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>359.78</v>
+        <v>348.76</v>
       </c>
       <c r="D24" t="n">
-        <v>403.3</v>
+        <v>393.86</v>
       </c>
       <c r="E24" t="n">
-        <v>4.62</v>
+        <v>5.504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>657.48</v>
+        <v>574.72</v>
       </c>
       <c r="D25" t="n">
-        <v>694.28</v>
+        <v>635.48</v>
       </c>
       <c r="E25" t="n">
-        <v>24.24</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>356.74</v>
+        <v>406.82</v>
       </c>
       <c r="D26" t="n">
-        <v>465.66</v>
+        <v>503.3</v>
       </c>
       <c r="E26" t="n">
-        <v>5.304</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>694.28</v>
+        <v>503.3</v>
       </c>
       <c r="D27" t="n">
-        <v>771.08</v>
+        <v>544.1</v>
       </c>
       <c r="E27" t="n">
-        <v>20.64</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>559.74</v>
+        <v>393.28</v>
       </c>
       <c r="D28" t="n">
-        <v>630.1799999999999</v>
+        <v>474.42</v>
       </c>
       <c r="E28" t="n">
-        <v>21.556</v>
+        <v>3.868</v>
       </c>
     </row>
     <row r="29">
@@ -979,74 +979,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>362.62</v>
+        <v>544.1</v>
       </c>
       <c r="D29" t="n">
-        <v>404.42</v>
+        <v>615.3</v>
       </c>
       <c r="E29" t="n">
-        <v>2.508</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>403.3</v>
+        <v>393.86</v>
       </c>
       <c r="D30" t="n">
-        <v>453.7</v>
+        <v>477.26</v>
       </c>
       <c r="E30" t="n">
-        <v>0.72</v>
+        <v>2.264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>453.7</v>
+        <v>663.8</v>
       </c>
       <c r="D31" t="n">
-        <v>558.5599999999999</v>
+        <v>704.74</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>20.652</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>558.5599999999999</v>
+        <v>474.42</v>
       </c>
       <c r="D32" t="n">
-        <v>611.26</v>
+        <v>512.0599999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>27.88</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>465.66</v>
+        <v>512.0599999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>512.16</v>
+        <v>602.0700000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>1.784</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>512.16</v>
+        <v>602.0700000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>580.59</v>
+        <v>666.95</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="35">
@@ -1093,112 +1093,112 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>390.58</v>
+        <v>704.74</v>
       </c>
       <c r="D35" t="n">
-        <v>466.42</v>
+        <v>761.24</v>
       </c>
       <c r="E35" t="n">
-        <v>0.248</v>
+        <v>17.112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>466.42</v>
+        <v>635.48</v>
       </c>
       <c r="D36" t="n">
-        <v>562.42</v>
+        <v>695.66</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>19.616</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>562.42</v>
+        <v>402.46</v>
       </c>
       <c r="D37" t="n">
-        <v>627.3</v>
+        <v>503.35</v>
       </c>
       <c r="E37" t="n">
-        <v>26.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>404.42</v>
+        <v>503.35</v>
       </c>
       <c r="D38" t="n">
-        <v>490.9</v>
+        <v>546.35</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>490.9</v>
+        <v>477.26</v>
       </c>
       <c r="D39" t="n">
-        <v>540.3200000000001</v>
+        <v>584.03</v>
       </c>
       <c r="E39" t="n">
-        <v>27.228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>540.3200000000001</v>
+        <v>584.03</v>
       </c>
       <c r="D40" t="n">
-        <v>602.42</v>
+        <v>656.79</v>
       </c>
       <c r="E40" t="n">
-        <v>23.628</v>
+        <v>26.864</v>
       </c>
     </row>
     <row r="41">
@@ -1207,169 +1207,112 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>602.42</v>
+        <v>615.3</v>
       </c>
       <c r="D41" t="n">
-        <v>657.3200000000001</v>
+        <v>647.8</v>
       </c>
       <c r="E41" t="n">
-        <v>20.248</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>630.1799999999999</v>
+        <v>546.35</v>
       </c>
       <c r="D42" t="n">
-        <v>672.9400000000001</v>
+        <v>622.85</v>
       </c>
       <c r="E42" t="n">
-        <v>18.42</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>627.3</v>
+        <v>656.79</v>
       </c>
       <c r="D43" t="n">
-        <v>703.54</v>
+        <v>708.5700000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>23.168</v>
+        <v>23.796</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>580.59</v>
+        <v>647.8</v>
       </c>
       <c r="D44" t="n">
-        <v>664.29</v>
+        <v>692.6</v>
       </c>
       <c r="E44" t="n">
-        <v>26.76</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>657.3200000000001</v>
+        <v>622.85</v>
       </c>
       <c r="D45" t="n">
-        <v>710.54</v>
+        <v>670.35</v>
       </c>
       <c r="E45" t="n">
-        <v>17.036</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>672.9400000000001</v>
+        <v>666.95</v>
       </c>
       <c r="D46" t="n">
-        <v>715.54</v>
+        <v>729.79</v>
       </c>
       <c r="E46" t="n">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>pond22</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>611.26</v>
-      </c>
-      <c r="D47" t="n">
-        <v>659.92</v>
-      </c>
-      <c r="E47" t="n">
-        <v>25.124</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pond33</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>659.92</v>
-      </c>
-      <c r="D48" t="n">
-        <v>724.42</v>
-      </c>
-      <c r="E48" t="n">
-        <v>22.264</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>pond17</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>703.54</v>
-      </c>
-      <c r="D49" t="n">
-        <v>756.24</v>
-      </c>
-      <c r="E49" t="n">
-        <v>20.528</v>
+        <v>23.508</v>
       </c>
     </row>
   </sheetData>
